--- a/참고자료/매입매출데이터_2(2019-10-24).xlsx
+++ b/참고자료/매입매출데이터_2(2019-10-24).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="원본" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="매출" sheetId="7" r:id="rId4"/>
     <sheet name="삼품정보" sheetId="8" r:id="rId5"/>
     <sheet name="거래처정보" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="iolist" localSheetId="2">매입!$B$2:$H$233</definedName>
@@ -103,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8165" uniqueCount="2013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9109" uniqueCount="2014">
   <si>
     <t>매입매출 원장</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -6167,6 +6168,9 @@
   </si>
   <si>
     <t>010-6736-8436</t>
+  </si>
+  <si>
+    <t>D0001</t>
   </si>
 </sst>
 </file>
@@ -6745,7 +6749,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -46146,7 +46150,7 @@
         <v>524</v>
       </c>
       <c r="I194" s="8">
-        <f t="shared" ref="I194:I257" si="3">H194*G194</f>
+        <f t="shared" ref="I194:I233" si="3">H194*G194</f>
         <v>43492</v>
       </c>
     </row>
@@ -55085,7 +55089,7 @@
         <v>500</v>
       </c>
       <c r="I258" s="9">
-        <f t="shared" ref="I258:I321" si="4">H258*G258</f>
+        <f t="shared" ref="I258:I260" si="4">H258*G258</f>
         <v>38500</v>
       </c>
     </row>
@@ -59522,7 +59526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+    <sheetView topLeftCell="A169" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -62859,4 +62863,4746 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F236"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>365500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E2">
+        <v>39235</v>
+      </c>
+      <c r="F2">
+        <v>470500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C3" t="s">
+        <v>679</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E4">
+        <v>167808</v>
+      </c>
+      <c r="F4">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E5">
+        <v>22420</v>
+      </c>
+      <c r="F5">
+        <v>133000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E6">
+        <v>97362</v>
+      </c>
+      <c r="F6">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E7">
+        <v>61775</v>
+      </c>
+      <c r="F7">
+        <v>348600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E8">
+        <v>210147</v>
+      </c>
+      <c r="F8">
+        <v>439000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E9">
+        <v>34932</v>
+      </c>
+      <c r="F9">
+        <v>439000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B10" t="s">
+        <v>766</v>
+      </c>
+      <c r="C10" t="s">
+        <v>767</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>120200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>264400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B12" t="s">
+        <v>786</v>
+      </c>
+      <c r="C12" t="s">
+        <v>787</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>370000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E13">
+        <v>164116</v>
+      </c>
+      <c r="F13">
+        <v>299000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B14" t="s">
+        <v>724</v>
+      </c>
+      <c r="C14" t="s">
+        <v>725</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E14">
+        <v>98040</v>
+      </c>
+      <c r="F14">
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E15">
+        <v>58253</v>
+      </c>
+      <c r="F15">
+        <v>245000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E16">
+        <v>241560</v>
+      </c>
+      <c r="F16">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E17">
+        <v>154881</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E18">
+        <v>36025</v>
+      </c>
+      <c r="F18">
+        <v>91500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E19">
+        <v>525798</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" t="s">
+        <v>291</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E20">
+        <v>88888</v>
+      </c>
+      <c r="F20">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E21">
+        <v>85196</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E22">
+        <v>182556</v>
+      </c>
+      <c r="F22">
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B23" t="s">
+        <v>410</v>
+      </c>
+      <c r="C23" t="s">
+        <v>411</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E23">
+        <v>224657</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B24" t="s">
+        <v>446</v>
+      </c>
+      <c r="C24" t="s">
+        <v>447</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E24">
+        <v>85606</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B25" t="s">
+        <v>452</v>
+      </c>
+      <c r="C25" t="s">
+        <v>453</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E25">
+        <v>76676</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B26" t="s">
+        <v>510</v>
+      </c>
+      <c r="C26" t="s">
+        <v>511</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E26">
+        <v>576104</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B27" t="s">
+        <v>476</v>
+      </c>
+      <c r="C27" t="s">
+        <v>477</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E27">
+        <v>20064</v>
+      </c>
+      <c r="F27">
+        <v>583600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B28" t="s">
+        <v>527</v>
+      </c>
+      <c r="C28" t="s">
+        <v>528</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E28">
+        <v>157172</v>
+      </c>
+      <c r="F28">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B29" t="s">
+        <v>552</v>
+      </c>
+      <c r="C29" t="s">
+        <v>553</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1805</v>
+      </c>
+      <c r="E29">
+        <v>1213984</v>
+      </c>
+      <c r="F29">
+        <v>187500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B30" t="s">
+        <v>727</v>
+      </c>
+      <c r="C30" t="s">
+        <v>728</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E30">
+        <v>15912</v>
+      </c>
+      <c r="F30">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>235200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1163200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>171000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B35" t="s">
+        <v>525</v>
+      </c>
+      <c r="C35" t="s">
+        <v>526</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>53100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B36" t="s">
+        <v>540</v>
+      </c>
+      <c r="C36" t="s">
+        <v>541</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>141000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B37" t="s">
+        <v>543</v>
+      </c>
+      <c r="C37" t="s">
+        <v>544</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>247500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B38" t="s">
+        <v>569</v>
+      </c>
+      <c r="C38" t="s">
+        <v>570</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>468000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B39" t="s">
+        <v>388</v>
+      </c>
+      <c r="C39" t="s">
+        <v>389</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E39">
+        <v>61407</v>
+      </c>
+      <c r="F39">
+        <v>346700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" t="s">
+        <v>263</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>219000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E41">
+        <v>44016</v>
+      </c>
+      <c r="F41">
+        <v>294000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B42" t="s">
+        <v>781</v>
+      </c>
+      <c r="C42" t="s">
+        <v>782</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E42">
+        <v>80575</v>
+      </c>
+      <c r="F42">
+        <v>75200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B43" t="s">
+        <v>567</v>
+      </c>
+      <c r="C43" t="s">
+        <v>568</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E44">
+        <v>52170</v>
+      </c>
+      <c r="F44">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E45">
+        <v>171288</v>
+      </c>
+      <c r="F45">
+        <v>1020000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E46">
+        <v>291649</v>
+      </c>
+      <c r="F46">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E47">
+        <v>147528</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E48">
+        <v>169104</v>
+      </c>
+      <c r="F48">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E49">
+        <v>60915</v>
+      </c>
+      <c r="F49">
+        <v>378000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B50" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E50">
+        <v>208520</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B51" t="s">
+        <v>314</v>
+      </c>
+      <c r="C51" t="s">
+        <v>315</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E51">
+        <v>89600</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B52" t="s">
+        <v>428</v>
+      </c>
+      <c r="C52" t="s">
+        <v>429</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E52">
+        <v>28770</v>
+      </c>
+      <c r="F52">
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B53" t="s">
+        <v>440</v>
+      </c>
+      <c r="C53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E53">
+        <v>48642</v>
+      </c>
+      <c r="F53">
+        <v>146000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B54" t="s">
+        <v>443</v>
+      </c>
+      <c r="C54" t="s">
+        <v>444</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E54">
+        <v>32897</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B55" t="s">
+        <v>642</v>
+      </c>
+      <c r="C55" t="s">
+        <v>643</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E55">
+        <v>35550</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B56" t="s">
+        <v>648</v>
+      </c>
+      <c r="C56" t="s">
+        <v>649</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E56">
+        <v>88500</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B57" t="s">
+        <v>801</v>
+      </c>
+      <c r="C57" t="s">
+        <v>802</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E57">
+        <v>111452</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B58" t="s">
+        <v>819</v>
+      </c>
+      <c r="C58" t="s">
+        <v>820</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E58">
+        <v>557345</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B59" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" t="s">
+        <v>266</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>302400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B60" t="s">
+        <v>463</v>
+      </c>
+      <c r="C60" t="s">
+        <v>464</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>433500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B61" t="s">
+        <v>469</v>
+      </c>
+      <c r="C61" t="s">
+        <v>470</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B62" t="s">
+        <v>490</v>
+      </c>
+      <c r="C62" t="s">
+        <v>491</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E63">
+        <v>27730</v>
+      </c>
+      <c r="F63">
+        <v>209400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B64" t="s">
+        <v>483</v>
+      </c>
+      <c r="C64" t="s">
+        <v>484</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>322500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B65" t="s">
+        <v>334</v>
+      </c>
+      <c r="C65" t="s">
+        <v>335</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E65">
+        <v>28950</v>
+      </c>
+      <c r="F65">
+        <v>137000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B66" t="s">
+        <v>695</v>
+      </c>
+      <c r="C66" t="s">
+        <v>696</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>212000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B67" t="s">
+        <v>221</v>
+      </c>
+      <c r="C67" t="s">
+        <v>222</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E67">
+        <v>62225</v>
+      </c>
+      <c r="F67">
+        <v>116400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B68" t="s">
+        <v>778</v>
+      </c>
+      <c r="C68" t="s">
+        <v>779</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1026000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B69" t="s">
+        <v>602</v>
+      </c>
+      <c r="C69" t="s">
+        <v>603</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E69">
+        <v>461440</v>
+      </c>
+      <c r="F69">
+        <v>357700</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B70" t="s">
+        <v>416</v>
+      </c>
+      <c r="C70" t="s">
+        <v>417</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E70">
+        <v>30176</v>
+      </c>
+      <c r="F70">
+        <v>408500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B71" t="s">
+        <v>454</v>
+      </c>
+      <c r="C71" t="s">
+        <v>455</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E71">
+        <v>24010</v>
+      </c>
+      <c r="F71">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E72">
+        <v>115640</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E73">
+        <v>162720</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B74" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74" t="s">
+        <v>226</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E74">
+        <v>823394</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B75" t="s">
+        <v>244</v>
+      </c>
+      <c r="C75" t="s">
+        <v>245</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E75">
+        <v>22703</v>
+      </c>
+      <c r="F75">
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B76" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" t="s">
+        <v>252</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E76">
+        <v>42636</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B77" t="s">
+        <v>302</v>
+      </c>
+      <c r="C77" t="s">
+        <v>303</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E77">
+        <v>47160</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B78" t="s">
+        <v>317</v>
+      </c>
+      <c r="C78" t="s">
+        <v>318</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E78">
+        <v>324844</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B79" t="s">
+        <v>325</v>
+      </c>
+      <c r="C79" t="s">
+        <v>326</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E79">
+        <v>125965</v>
+      </c>
+      <c r="F79">
+        <v>868000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B80" t="s">
+        <v>472</v>
+      </c>
+      <c r="C80" t="s">
+        <v>473</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E80">
+        <v>34278</v>
+      </c>
+      <c r="F80">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B81" t="s">
+        <v>562</v>
+      </c>
+      <c r="C81" t="s">
+        <v>563</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E81">
+        <v>128472</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B82" t="s">
+        <v>625</v>
+      </c>
+      <c r="C82" t="s">
+        <v>626</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E82">
+        <v>181168</v>
+      </c>
+      <c r="F82">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B83" t="s">
+        <v>737</v>
+      </c>
+      <c r="C83" t="s">
+        <v>738</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E83">
+        <v>174376</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B84" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E84">
+        <v>199179</v>
+      </c>
+      <c r="F84">
+        <v>166200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B85" t="s">
+        <v>822</v>
+      </c>
+      <c r="C85" t="s">
+        <v>823</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E85">
+        <v>596687</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B86" t="s">
+        <v>480</v>
+      </c>
+      <c r="C86" t="s">
+        <v>481</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E86">
+        <v>22080</v>
+      </c>
+      <c r="F86">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B87" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" t="s">
+        <v>199</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E87">
+        <v>106952</v>
+      </c>
+      <c r="F87">
+        <v>444300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B88" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>67900</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B89" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" t="s">
+        <v>167</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>777000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B90" t="s">
+        <v>293</v>
+      </c>
+      <c r="C90" t="s">
+        <v>294</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B91" t="s">
+        <v>361</v>
+      </c>
+      <c r="C91" t="s">
+        <v>362</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>257800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B92" t="s">
+        <v>466</v>
+      </c>
+      <c r="C92" t="s">
+        <v>467</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>105700</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B93" t="s">
+        <v>487</v>
+      </c>
+      <c r="C93" t="s">
+        <v>488</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>37100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B94" t="s">
+        <v>584</v>
+      </c>
+      <c r="C94" t="s">
+        <v>585</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B95" t="s">
+        <v>616</v>
+      </c>
+      <c r="C95" t="s">
+        <v>617</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B96" t="s">
+        <v>258</v>
+      </c>
+      <c r="C96" t="s">
+        <v>259</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E96">
+        <v>149234</v>
+      </c>
+      <c r="F96">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B97" t="s">
+        <v>358</v>
+      </c>
+      <c r="C97" t="s">
+        <v>359</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>309000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B98" t="s">
+        <v>704</v>
+      </c>
+      <c r="C98" t="s">
+        <v>705</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E98">
+        <v>183335</v>
+      </c>
+      <c r="F98">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B99" t="s">
+        <v>759</v>
+      </c>
+      <c r="C99" t="s">
+        <v>760</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E99">
+        <v>177310</v>
+      </c>
+      <c r="F99">
+        <v>59500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B100" t="s">
+        <v>546</v>
+      </c>
+      <c r="C100" t="s">
+        <v>547</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B101" t="s">
+        <v>82</v>
+      </c>
+      <c r="C101" t="s">
+        <v>83</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E101">
+        <v>12250</v>
+      </c>
+      <c r="F101">
+        <v>412900</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B102" t="s">
+        <v>422</v>
+      </c>
+      <c r="C102" t="s">
+        <v>423</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E102">
+        <v>27742</v>
+      </c>
+      <c r="F102">
+        <v>291000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B103" t="s">
+        <v>788</v>
+      </c>
+      <c r="C103" t="s">
+        <v>789</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B104" t="s">
+        <v>340</v>
+      </c>
+      <c r="C104" t="s">
+        <v>341</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E104">
+        <v>410354</v>
+      </c>
+      <c r="F104">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B105" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E105">
+        <v>41052</v>
+      </c>
+      <c r="F105">
+        <v>281500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B106" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" t="s">
+        <v>86</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E106">
+        <v>141988</v>
+      </c>
+      <c r="F106">
+        <v>333600</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B107" t="s">
+        <v>128</v>
+      </c>
+      <c r="C107" t="s">
+        <v>129</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E107">
+        <v>24500</v>
+      </c>
+      <c r="F107">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B108" t="s">
+        <v>193</v>
+      </c>
+      <c r="C108" t="s">
+        <v>194</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E108">
+        <v>130827</v>
+      </c>
+      <c r="F108">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B109" t="s">
+        <v>241</v>
+      </c>
+      <c r="C109" t="s">
+        <v>242</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E109">
+        <v>65773</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B110" t="s">
+        <v>94</v>
+      </c>
+      <c r="C110" t="s">
+        <v>95</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E110">
+        <v>96334</v>
+      </c>
+      <c r="F110">
+        <v>191200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B111" t="s">
+        <v>431</v>
+      </c>
+      <c r="C111" t="s">
+        <v>432</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E111">
+        <v>168099</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B112" t="s">
+        <v>368</v>
+      </c>
+      <c r="C112" t="s">
+        <v>392</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E112">
+        <v>83646</v>
+      </c>
+      <c r="F112">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B113" t="s">
+        <v>645</v>
+      </c>
+      <c r="C113" t="s">
+        <v>646</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E113">
+        <v>102660</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B114" t="s">
+        <v>652</v>
+      </c>
+      <c r="C114" t="s">
+        <v>653</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E114">
+        <v>35612</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B115" t="s">
+        <v>576</v>
+      </c>
+      <c r="C115" t="s">
+        <v>577</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E115">
+        <v>493052</v>
+      </c>
+      <c r="F115">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B116" t="s">
+        <v>753</v>
+      </c>
+      <c r="C116" t="s">
+        <v>754</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E116">
+        <v>93879</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B117" t="s">
+        <v>186</v>
+      </c>
+      <c r="C117" t="s">
+        <v>187</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1893</v>
+      </c>
+      <c r="E117">
+        <v>124407</v>
+      </c>
+      <c r="F117">
+        <v>172100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B118" t="s">
+        <v>160</v>
+      </c>
+      <c r="C118" t="s">
+        <v>161</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>76500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B119" t="s">
+        <v>287</v>
+      </c>
+      <c r="C119" t="s">
+        <v>288</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1895</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>144500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B120" t="s">
+        <v>364</v>
+      </c>
+      <c r="C120" t="s">
+        <v>365</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>312200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B121" t="s">
+        <v>377</v>
+      </c>
+      <c r="C121" t="s">
+        <v>378</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B122" t="s">
+        <v>496</v>
+      </c>
+      <c r="C122" t="s">
+        <v>497</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B123" t="s">
+        <v>549</v>
+      </c>
+      <c r="C123" t="s">
+        <v>550</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B124" t="s">
+        <v>587</v>
+      </c>
+      <c r="C124" t="s">
+        <v>588</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B125" t="s">
+        <v>858</v>
+      </c>
+      <c r="C125" t="s">
+        <v>859</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>111600</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B126" t="s">
+        <v>668</v>
+      </c>
+      <c r="C126" t="s">
+        <v>669</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>30600</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B127" t="s">
+        <v>671</v>
+      </c>
+      <c r="C127" t="s">
+        <v>672</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>149400</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B128" t="s">
+        <v>598</v>
+      </c>
+      <c r="C128" t="s">
+        <v>599</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>655500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B129" t="s">
+        <v>581</v>
+      </c>
+      <c r="C129" t="s">
+        <v>582</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>417800</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B130" t="s">
+        <v>697</v>
+      </c>
+      <c r="C130" t="s">
+        <v>698</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E130">
+        <v>83629</v>
+      </c>
+      <c r="F130">
+        <v>232400</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B131" t="s">
+        <v>60</v>
+      </c>
+      <c r="C131" t="s">
+        <v>61</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E131">
+        <v>29857</v>
+      </c>
+      <c r="F131">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B132" t="s">
+        <v>739</v>
+      </c>
+      <c r="C132" t="s">
+        <v>740</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E132">
+        <v>41265</v>
+      </c>
+      <c r="F132">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B133" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E133">
+        <v>238815</v>
+      </c>
+      <c r="F133">
+        <v>129000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B134" t="s">
+        <v>747</v>
+      </c>
+      <c r="C134" t="s">
+        <v>748</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E134">
+        <v>56062</v>
+      </c>
+      <c r="F134">
+        <v>121500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B135" t="s">
+        <v>276</v>
+      </c>
+      <c r="C135" t="s">
+        <v>277</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>250500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B136" t="s">
+        <v>841</v>
+      </c>
+      <c r="C136" t="s">
+        <v>842</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B137" t="s">
+        <v>39</v>
+      </c>
+      <c r="C137" t="s">
+        <v>40</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E137">
+        <v>41244</v>
+      </c>
+      <c r="F137">
+        <v>260400</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B138" t="s">
+        <v>849</v>
+      </c>
+      <c r="C138" t="s">
+        <v>850</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>139500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B139" t="s">
+        <v>202</v>
+      </c>
+      <c r="C139" t="s">
+        <v>203</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E139">
+        <v>57424</v>
+      </c>
+      <c r="F139">
+        <v>348000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B140" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E140">
+        <v>80555</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B141" t="s">
+        <v>42</v>
+      </c>
+      <c r="C141" t="s">
+        <v>43</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E141">
+        <v>161426</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B142" t="s">
+        <v>54</v>
+      </c>
+      <c r="C142" t="s">
+        <v>55</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E142">
+        <v>687910</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B143" t="s">
+        <v>67</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E143">
+        <v>75395</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B144" t="s">
+        <v>235</v>
+      </c>
+      <c r="C144" t="s">
+        <v>236</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E144">
+        <v>43699</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B145" t="s">
+        <v>299</v>
+      </c>
+      <c r="C145" t="s">
+        <v>300</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E145">
+        <v>255561</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B146" t="s">
+        <v>403</v>
+      </c>
+      <c r="C146" t="s">
+        <v>404</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E146">
+        <v>127800</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B147" t="s">
+        <v>413</v>
+      </c>
+      <c r="C147" t="s">
+        <v>414</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E147">
+        <v>433386</v>
+      </c>
+      <c r="F147">
+        <v>432500</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B148" t="s">
+        <v>437</v>
+      </c>
+      <c r="C148" t="s">
+        <v>438</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E148">
+        <v>89072</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B149" t="s">
+        <v>503</v>
+      </c>
+      <c r="C149" t="s">
+        <v>504</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E149">
+        <v>54060</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B150" t="s">
+        <v>516</v>
+      </c>
+      <c r="C150" t="s">
+        <v>517</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E150">
+        <v>65661</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B151" t="s">
+        <v>658</v>
+      </c>
+      <c r="C151" t="s">
+        <v>659</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E151">
+        <v>44190</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B152" t="s">
+        <v>350</v>
+      </c>
+      <c r="C152" t="s">
+        <v>351</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E152">
+        <v>230765</v>
+      </c>
+      <c r="F152">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B153" t="s">
+        <v>812</v>
+      </c>
+      <c r="C153" t="s">
+        <v>813</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E153">
+        <v>43492</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B154" t="s">
+        <v>864</v>
+      </c>
+      <c r="C154" t="s">
+        <v>865</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E154">
+        <v>22563</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B155" t="s">
+        <v>100</v>
+      </c>
+      <c r="C155" t="s">
+        <v>101</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>56700</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B156" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" t="s">
+        <v>157</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B157" t="s">
+        <v>270</v>
+      </c>
+      <c r="C157" t="s">
+        <v>271</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B158" t="s">
+        <v>345</v>
+      </c>
+      <c r="C158" t="s">
+        <v>346</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B159" t="s">
+        <v>458</v>
+      </c>
+      <c r="C159" t="s">
+        <v>459</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B160" t="s">
+        <v>573</v>
+      </c>
+      <c r="C160" t="s">
+        <v>574</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B161" t="s">
+        <v>593</v>
+      </c>
+      <c r="C161" t="s">
+        <v>594</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>61200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B162" t="s">
+        <v>605</v>
+      </c>
+      <c r="C162" t="s">
+        <v>606</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>576000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B163" t="s">
+        <v>853</v>
+      </c>
+      <c r="C163" t="s">
+        <v>854</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>111000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B164" t="s">
+        <v>328</v>
+      </c>
+      <c r="C164" t="s">
+        <v>329</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E164">
+        <v>184464</v>
+      </c>
+      <c r="F164">
+        <v>319500</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B165" t="s">
+        <v>249</v>
+      </c>
+      <c r="C165" t="s">
+        <v>250</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E165">
+        <v>103807</v>
+      </c>
+      <c r="F165">
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B166" t="s">
+        <v>621</v>
+      </c>
+      <c r="C166" t="s">
+        <v>622</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E166">
+        <v>36698</v>
+      </c>
+      <c r="F166">
+        <v>173100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B167" t="s">
+        <v>501</v>
+      </c>
+      <c r="C167" t="s">
+        <v>502</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>273700</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B168" t="s">
+        <v>385</v>
+      </c>
+      <c r="C168" t="s">
+        <v>386</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E168">
+        <v>173336</v>
+      </c>
+      <c r="F168">
+        <v>353500</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B169" t="s">
+        <v>434</v>
+      </c>
+      <c r="C169" t="s">
+        <v>435</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E169">
+        <v>76585</v>
+      </c>
+      <c r="F169">
+        <v>46500</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B170" t="s">
+        <v>774</v>
+      </c>
+      <c r="C170" t="s">
+        <v>775</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>132500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B171" t="s">
+        <v>522</v>
+      </c>
+      <c r="C171" t="s">
+        <v>523</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>221000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B172" t="s">
+        <v>796</v>
+      </c>
+      <c r="C172" t="s">
+        <v>797</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B173" t="s">
+        <v>506</v>
+      </c>
+      <c r="C173" t="s">
+        <v>507</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E173">
+        <v>62880</v>
+      </c>
+      <c r="F173">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B174" t="s">
+        <v>847</v>
+      </c>
+      <c r="C174" t="s">
+        <v>848</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E174">
+        <v>21459</v>
+      </c>
+      <c r="F174">
+        <v>85500</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B175" t="s">
+        <v>104</v>
+      </c>
+      <c r="C175" t="s">
+        <v>105</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E175">
+        <v>87500</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B176" t="s">
+        <v>131</v>
+      </c>
+      <c r="C176" t="s">
+        <v>132</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E176">
+        <v>258527</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B177" t="s">
+        <v>153</v>
+      </c>
+      <c r="C177" t="s">
+        <v>154</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E177">
+        <v>256476</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B178" t="s">
+        <v>306</v>
+      </c>
+      <c r="C178" t="s">
+        <v>307</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E178">
+        <v>127236</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B179" t="s">
+        <v>48</v>
+      </c>
+      <c r="C179" t="s">
+        <v>49</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E179">
+        <v>157242</v>
+      </c>
+      <c r="F179">
+        <v>217500</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B180" t="s">
+        <v>513</v>
+      </c>
+      <c r="C180" t="s">
+        <v>514</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E180">
+        <v>31915</v>
+      </c>
+      <c r="F180">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B181" t="s">
+        <v>636</v>
+      </c>
+      <c r="C181" t="s">
+        <v>637</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E181">
+        <v>26939</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B182" t="s">
+        <v>718</v>
+      </c>
+      <c r="C182" t="s">
+        <v>719</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E182">
+        <v>117024</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B183" t="s">
+        <v>825</v>
+      </c>
+      <c r="C183" t="s">
+        <v>826</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E183">
+        <v>34560</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B184" t="s">
+        <v>828</v>
+      </c>
+      <c r="C184" t="s">
+        <v>829</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E184">
+        <v>53802</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B185" t="s">
+        <v>374</v>
+      </c>
+      <c r="C185" t="s">
+        <v>375</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E185">
+        <v>175374</v>
+      </c>
+      <c r="F185">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B186" t="s">
+        <v>218</v>
+      </c>
+      <c r="C186" t="s">
+        <v>219</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E186">
+        <v>154896</v>
+      </c>
+      <c r="F186">
+        <v>252500</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B187" t="s">
+        <v>560</v>
+      </c>
+      <c r="C187" t="s">
+        <v>561</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E187">
+        <v>55358</v>
+      </c>
+      <c r="F187">
+        <v>277500</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B188" t="s">
+        <v>682</v>
+      </c>
+      <c r="C188" t="s">
+        <v>683</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B189" t="s">
+        <v>684</v>
+      </c>
+      <c r="C189" t="s">
+        <v>685</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>258000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B190" t="s">
+        <v>531</v>
+      </c>
+      <c r="C190" t="s">
+        <v>532</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>1756500</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B191" t="s">
+        <v>630</v>
+      </c>
+      <c r="C191" t="s">
+        <v>631</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E191">
+        <v>167010</v>
+      </c>
+      <c r="F191">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B192" t="s">
+        <v>639</v>
+      </c>
+      <c r="C192" t="s">
+        <v>640</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E192">
+        <v>63128</v>
+      </c>
+      <c r="F192">
+        <v>244500</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B193" t="s">
+        <v>762</v>
+      </c>
+      <c r="C193" t="s">
+        <v>763</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B194" t="s">
+        <v>368</v>
+      </c>
+      <c r="C194" t="s">
+        <v>369</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E194">
+        <v>88319</v>
+      </c>
+      <c r="F194">
+        <v>602500</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B195" t="s">
+        <v>88</v>
+      </c>
+      <c r="C195" t="s">
+        <v>89</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E195">
+        <v>313477</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>14</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E196">
+        <v>18966</v>
+      </c>
+      <c r="F196">
+        <v>712600</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B197" t="s">
+        <v>110</v>
+      </c>
+      <c r="C197" t="s">
+        <v>111</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E197">
+        <v>152992</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B198" t="s">
+        <v>134</v>
+      </c>
+      <c r="C198" t="s">
+        <v>135</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E198">
+        <v>56140</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B199" t="s">
+        <v>215</v>
+      </c>
+      <c r="C199" t="s">
+        <v>216</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E199">
+        <v>53300</v>
+      </c>
+      <c r="F199">
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B200" t="s">
+        <v>183</v>
+      </c>
+      <c r="C200" t="s">
+        <v>184</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E200">
+        <v>29184</v>
+      </c>
+      <c r="F200">
+        <v>145500</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B201" t="s">
+        <v>296</v>
+      </c>
+      <c r="C201" t="s">
+        <v>297</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E201">
+        <v>175933</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B202" t="s">
+        <v>420</v>
+      </c>
+      <c r="C202" t="s">
+        <v>421</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E202">
+        <v>39910</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B203" t="s">
+        <v>273</v>
+      </c>
+      <c r="C203" t="s">
+        <v>274</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E203">
+        <v>22540</v>
+      </c>
+      <c r="F203">
+        <v>68400</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B204" t="s">
+        <v>449</v>
+      </c>
+      <c r="C204" t="s">
+        <v>450</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E204">
+        <v>82040</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B205" t="s">
+        <v>189</v>
+      </c>
+      <c r="C205" t="s">
+        <v>190</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E205">
+        <v>86002</v>
+      </c>
+      <c r="F205">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B206" t="s">
+        <v>655</v>
+      </c>
+      <c r="C206" t="s">
+        <v>656</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E206">
+        <v>892584</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B207" t="s">
+        <v>279</v>
+      </c>
+      <c r="C207" t="s">
+        <v>280</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B208" t="s">
+        <v>519</v>
+      </c>
+      <c r="C208" t="s">
+        <v>520</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>204000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B209" t="s">
+        <v>555</v>
+      </c>
+      <c r="C209" t="s">
+        <v>556</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>167400</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B210" t="s">
+        <v>396</v>
+      </c>
+      <c r="C210" t="s">
+        <v>397</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E210">
+        <v>37335</v>
+      </c>
+      <c r="F210">
+        <v>498000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B211" t="s">
+        <v>79</v>
+      </c>
+      <c r="C211" t="s">
+        <v>80</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E211">
+        <v>115510</v>
+      </c>
+      <c r="F211">
+        <v>246000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B212" t="s">
+        <v>665</v>
+      </c>
+      <c r="C212" t="s">
+        <v>666</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B213" t="s">
+        <v>674</v>
+      </c>
+      <c r="C213" t="s">
+        <v>675</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B214" t="s">
+        <v>609</v>
+      </c>
+      <c r="C214" t="s">
+        <v>610</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E214">
+        <v>48609</v>
+      </c>
+      <c r="F214">
+        <v>174500</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B215" t="s">
+        <v>834</v>
+      </c>
+      <c r="C215" t="s">
+        <v>835</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B216" t="s">
+        <v>36</v>
+      </c>
+      <c r="C216" t="s">
+        <v>37</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E216">
+        <v>188500</v>
+      </c>
+      <c r="F216">
+        <v>177000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B217" t="s">
+        <v>591</v>
+      </c>
+      <c r="C217" t="s">
+        <v>592</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B218" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218" t="s">
+        <v>22</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E218">
+        <v>21805</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B219" t="s">
+        <v>51</v>
+      </c>
+      <c r="C219" t="s">
+        <v>52</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E219">
+        <v>153385</v>
+      </c>
+      <c r="F219">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B220" t="s">
+        <v>137</v>
+      </c>
+      <c r="C220" t="s">
+        <v>138</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E220">
+        <v>202117</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B221" t="s">
+        <v>150</v>
+      </c>
+      <c r="C221" t="s">
+        <v>151</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E221">
+        <v>48633</v>
+      </c>
+      <c r="F221">
+        <v>83700</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B222" t="s">
+        <v>229</v>
+      </c>
+      <c r="C222" t="s">
+        <v>230</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E222">
+        <v>20400</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B223" t="s">
+        <v>331</v>
+      </c>
+      <c r="C223" t="s">
+        <v>332</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E223">
+        <v>41256</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B224" t="s">
+        <v>337</v>
+      </c>
+      <c r="C224" t="s">
+        <v>338</v>
+      </c>
+      <c r="D224" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E224">
+        <v>501234</v>
+      </c>
+      <c r="F224">
+        <v>280300</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B225" t="s">
+        <v>399</v>
+      </c>
+      <c r="C225" t="s">
+        <v>400</v>
+      </c>
+      <c r="D225" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E225">
+        <v>187722</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B226" t="s">
+        <v>407</v>
+      </c>
+      <c r="C226" t="s">
+        <v>408</v>
+      </c>
+      <c r="D226" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E226">
+        <v>36401</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B227" t="s">
+        <v>285</v>
+      </c>
+      <c r="C227" t="s">
+        <v>286</v>
+      </c>
+      <c r="D227" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E227">
+        <v>30942</v>
+      </c>
+      <c r="F227">
+        <v>84500</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B228" t="s">
+        <v>711</v>
+      </c>
+      <c r="C228" t="s">
+        <v>712</v>
+      </c>
+      <c r="D228" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E228">
+        <v>29430</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B229" t="s">
+        <v>714</v>
+      </c>
+      <c r="C229" t="s">
+        <v>715</v>
+      </c>
+      <c r="D229" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E229">
+        <v>20601</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B230" t="s">
+        <v>125</v>
+      </c>
+      <c r="C230" t="s">
+        <v>126</v>
+      </c>
+      <c r="D230" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E230">
+        <v>121954</v>
+      </c>
+      <c r="F230">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B231" t="s">
+        <v>731</v>
+      </c>
+      <c r="C231" t="s">
+        <v>732</v>
+      </c>
+      <c r="D231" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E231">
+        <v>39262</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B232" t="s">
+        <v>282</v>
+      </c>
+      <c r="C232" t="s">
+        <v>283</v>
+      </c>
+      <c r="D232" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E232">
+        <v>92274</v>
+      </c>
+      <c r="F232">
+        <v>274000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B233" t="s">
+        <v>809</v>
+      </c>
+      <c r="C233" t="s">
+        <v>810</v>
+      </c>
+      <c r="D233" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E233">
+        <v>26852</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B234" t="s">
+        <v>875</v>
+      </c>
+      <c r="C234" t="s">
+        <v>876</v>
+      </c>
+      <c r="D234" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E234">
+        <v>47136</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B235" t="s">
+        <v>122</v>
+      </c>
+      <c r="C235" t="s">
+        <v>123</v>
+      </c>
+      <c r="D235" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>66500</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B236" t="s">
+        <v>353</v>
+      </c>
+      <c r="C236" t="s">
+        <v>354</v>
+      </c>
+      <c r="D236" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>190000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>